--- a/biology/Zoologie/Gollum_attenuatus/Gollum_attenuatus.xlsx
+++ b/biology/Zoologie/Gollum_attenuatus/Gollum_attenuatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gollum attenuatus ou Requin-chat gollum est un requin de la famille des Pseudotriakidae [image souhaitée]. C'est une espèce du genre Gollum.
 Vit dans le Pacifique ouest, au sud de la Nouvelle-Zélande; de 120 à 660 mètres de fond et dans des eaux à environ 10 °C. Il atteint parfois 1,10 mètre de long.
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Garrick, 1954 : Studies on New Zealand Elasmobranchii. Part III. A new species of Triakis (Selachii) from New Zealand. Transactions of the Royal Society of New Zealand 82-3 p. 695-702. Texte original
 Compagno, 1973 : Ctenacis and Gollum, two new genera of sharks (Selachii; Carcharhinidae). Proceedings of the California Academy of Sciences (Series 4) 39-14 p. 257-272.</t>
